--- a/outputs/p__Planctomycetota_train.xlsx
+++ b/outputs/p__Planctomycetota_train.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC13F5DE-7967-CC40-8134-05DE83EAF8B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5AE66C-9047-C247-91B9-71C46844A363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c__Brocadiae-b-p" sheetId="5" r:id="rId1"/>
@@ -355,9 +355,6 @@
     <t>GB_GCA_003671075.1_0.fasta</t>
   </si>
   <si>
-    <t>c__UBAc__Brocadiaec__Brocadiaec__Planctomycetes5</t>
-  </si>
-  <si>
     <t>GB_GCA_003696725.1_0.fasta</t>
   </si>
   <si>
@@ -1055,19 +1052,27 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>c__UBA11351135</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1115,11 +1120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1452,10 +1458,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1976,7 +1982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1994,10 +2002,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -3862,13 +3870,13 @@
       <c r="F82">
         <v>0.42379870846837092</v>
       </c>
-      <c r="G82" t="s">
-        <v>110</v>
+      <c r="G82" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B83">
         <v>2.6227349170689441E-5</v>
@@ -3886,12 +3894,12 @@
         <v>0.80206567787851946</v>
       </c>
       <c r="G83" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B84">
         <v>6.6214210900059706E-6</v>
@@ -3914,7 +3922,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B85">
         <v>2.4414098368729629E-2</v>
@@ -3937,7 +3945,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B86">
         <v>1.4186923768551151E-3</v>
@@ -3960,7 +3968,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B87">
         <v>1.5701342935739269E-4</v>
@@ -3983,7 +3991,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B88">
         <v>3.2524688281398362E-7</v>
@@ -4006,7 +4014,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B89">
         <v>1.1785606280433439E-2</v>
@@ -4029,7 +4037,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90">
         <v>1.2941296248805451E-3</v>
@@ -4052,7 +4060,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B91">
         <v>5.7206679923459873E-4</v>
@@ -4075,7 +4083,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B92">
         <v>2.4903356689059048E-3</v>
@@ -4093,12 +4101,12 @@
         <v>0.75738793773430146</v>
       </c>
       <c r="G92" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B93">
         <v>1.767037218466468E-2</v>
@@ -4121,7 +4129,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B94">
         <v>6.6033389548132335E-4</v>
@@ -4144,7 +4152,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B95">
         <v>6.0559167497241497E-3</v>
@@ -4167,7 +4175,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B96">
         <v>9.9283842747200572E-4</v>
@@ -4190,7 +4198,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B97">
         <v>1.499985684796345E-3</v>
@@ -4213,7 +4221,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98">
         <v>1.1268517062226109E-4</v>
@@ -4236,7 +4244,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B99">
         <v>1.071039116312971E-4</v>
@@ -4259,7 +4267,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B100">
         <v>6.6931951210735298E-4</v>
@@ -4282,7 +4290,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101">
         <v>0.13450554691536309</v>
@@ -4300,12 +4308,12 @@
         <v>0.36984409270425528</v>
       </c>
       <c r="G101" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102">
         <v>1.7963211286354169E-2</v>
@@ -4328,7 +4336,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B103">
         <v>3.2696882084601121E-2</v>
@@ -4351,7 +4359,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B104">
         <v>2.9478000500838262E-4</v>
@@ -4374,7 +4382,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B105">
         <v>2.808659351391025E-3</v>
@@ -4397,7 +4405,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B106">
         <v>8.9915982988974623E-3</v>
@@ -4420,7 +4428,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B107">
         <v>4.4338011940175696E-3</v>
@@ -4443,7 +4451,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B108">
         <v>4.822537432451616E-5</v>
@@ -4466,7 +4474,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B109">
         <v>8.0483716302031879E-4</v>
@@ -4489,7 +4497,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B110">
         <v>4.1380529432707869E-2</v>
@@ -4512,7 +4520,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B111">
         <v>2.3320958517389568E-5</v>
@@ -4535,7 +4543,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B112">
         <v>3.2177473977982507E-5</v>
@@ -4558,7 +4566,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B113">
         <v>8.5527534071870169E-4</v>
@@ -4581,7 +4589,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B114">
         <v>1.102533207112635E-2</v>
@@ -4604,7 +4612,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B115">
         <v>2.5714296579068489E-2</v>
@@ -4627,7 +4635,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B116">
         <v>1.8066421221201341E-2</v>
@@ -4650,7 +4658,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B117">
         <v>6.3523324687877912E-3</v>
@@ -4673,7 +4681,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B118">
         <v>1.0064100417607E-3</v>
@@ -4696,7 +4704,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B119">
         <v>7.4042883773829703E-4</v>
@@ -4719,7 +4727,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B120">
         <v>2.7116151705251011E-3</v>
@@ -4742,7 +4750,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B121">
         <v>7.5269287354266428E-3</v>
@@ -4765,7 +4773,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B122">
         <v>1.393071921519919E-3</v>
@@ -4788,7 +4796,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B123">
         <v>2.8762823821943599E-3</v>
@@ -4811,7 +4819,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B124">
         <v>1.563070559270208E-3</v>
@@ -4834,7 +4842,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B125">
         <v>1.8810856564922371E-3</v>
@@ -4857,7 +4865,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B126">
         <v>1.8483944458445669E-2</v>
@@ -4880,7 +4888,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B127">
         <v>1.191673329284536E-2</v>
@@ -4903,7 +4911,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B128">
         <v>2.247978118266521E-2</v>
@@ -4926,7 +4934,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B129">
         <v>2.7650218046537691E-2</v>
@@ -4949,7 +4957,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B130">
         <v>9.1695198160544437E-3</v>
@@ -4972,7 +4980,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B131">
         <v>4.4966056170115051E-2</v>
@@ -4995,7 +5003,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B132">
         <v>3.1625207601618092E-3</v>
@@ -5018,7 +5026,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B133">
         <v>4.3867345764747627E-3</v>
@@ -5041,7 +5049,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B134">
         <v>2.306512912141933E-2</v>
@@ -5064,7 +5072,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B135">
         <v>1.13811592987657E-2</v>
@@ -5087,7 +5095,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B136">
         <v>1.0765493855374351E-3</v>
@@ -5135,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -5146,7 +5154,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2">
         <v>1.8390609499768009E-4</v>
@@ -5169,7 +5177,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3">
         <v>7.4854698082873409E-4</v>
@@ -5192,7 +5200,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>4.8843767580053193E-3</v>
@@ -5215,7 +5223,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>3.1414905119947988E-4</v>
@@ -5238,7 +5246,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <v>4.5207788629766073E-3</v>
@@ -5261,7 +5269,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>8.9541207406388832E-4</v>
@@ -5284,7 +5292,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>1.7876737346832899E-4</v>
@@ -5307,7 +5315,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>4.8843547145527397E-4</v>
@@ -5330,7 +5338,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10">
         <v>2.575411694586529E-3</v>
@@ -5353,7 +5361,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11">
         <v>3.6725421628240628E-3</v>
@@ -5376,7 +5384,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>9.1203827732397083E-5</v>
@@ -5399,7 +5407,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>1.056762387583802E-3</v>
@@ -5422,7 +5430,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14">
         <v>6.8755544648744225E-4</v>
@@ -5445,7 +5453,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15">
         <v>1.2405932194614209E-3</v>
@@ -5468,7 +5476,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16">
         <v>9.6998082557199971E-4</v>
@@ -5491,7 +5499,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17">
         <v>5.6619432299539148E-2</v>
@@ -5514,7 +5522,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18">
         <v>6.6325566142670151E-5</v>
@@ -5537,7 +5545,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19">
         <v>9.4950607094781113E-4</v>
@@ -5560,7 +5568,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20">
         <v>4.5919164095830391E-2</v>
@@ -5583,7 +5591,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21">
         <v>2.0198246711890178E-2</v>
@@ -5606,7 +5614,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22">
         <v>1.9910247333221288E-3</v>
@@ -5629,7 +5637,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23">
         <v>1.7736036648938519E-3</v>
@@ -5652,7 +5660,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24">
         <v>1.3430637346542351E-2</v>
@@ -5675,7 +5683,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25">
         <v>6.7013334331621175E-5</v>
@@ -5698,7 +5706,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26">
         <v>1.7672723354862649E-3</v>
@@ -5721,7 +5729,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27">
         <v>5.2261574887439905E-4</v>
@@ -5744,7 +5752,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28">
         <v>2.7381669206468298E-4</v>
@@ -5767,7 +5775,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29">
         <v>2.938687813646795E-2</v>
@@ -5790,7 +5798,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30">
         <v>1.0429674267096831E-2</v>
@@ -5813,7 +5821,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31">
         <v>3.3519616648113523E-2</v>
@@ -5836,7 +5844,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32">
         <v>2.112065592404843E-2</v>
@@ -5859,7 +5867,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B33">
         <v>3.2152913043723093E-2</v>
@@ -5882,7 +5890,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34">
         <v>1.6882162369857741E-2</v>
@@ -5905,7 +5913,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B35">
         <v>2.192723384826728E-2</v>
@@ -5928,7 +5936,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36">
         <v>9.3266715306202005E-3</v>
@@ -5951,7 +5959,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37">
         <v>3.6223951927363718E-2</v>
@@ -5974,7 +5982,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38">
         <v>1.7259854568922119E-2</v>
@@ -5997,7 +6005,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39">
         <v>9.175263138685813E-2</v>
@@ -6020,7 +6028,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40">
         <v>6.5057652809403926E-2</v>
@@ -6043,7 +6051,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41">
         <v>2.7604974449437419E-2</v>
@@ -6066,7 +6074,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42">
         <v>3.0997698610343472E-3</v>
@@ -6089,7 +6097,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43">
         <v>5.6896514980109602E-3</v>
@@ -6112,7 +6120,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44">
         <v>3.5122852894450369E-3</v>
@@ -6135,7 +6143,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45">
         <v>3.7555799226150557E-2</v>
@@ -6158,7 +6166,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B46">
         <v>9.081873882353677E-3</v>
@@ -6181,7 +6189,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47">
         <v>3.1899319294155931E-3</v>
@@ -6204,7 +6212,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B48">
         <v>1.1710275414957999E-2</v>
@@ -6227,7 +6235,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B49">
         <v>8.7807605622790032E-3</v>
@@ -6250,7 +6258,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50">
         <v>3.7286101594042678E-2</v>
@@ -6273,7 +6281,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51">
         <v>5.1527208278761474E-3</v>
@@ -6296,7 +6304,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B52">
         <v>3.8552075292061451E-4</v>
@@ -6319,7 +6327,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B53">
         <v>9.5761497235432225E-5</v>
@@ -6342,7 +6350,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B54">
         <v>2.1077328976690539E-3</v>
@@ -6365,7 +6373,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B55">
         <v>3.41028323059349E-5</v>
@@ -6388,7 +6396,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56">
         <v>4.0645113390054673E-2</v>
@@ -6411,7 +6419,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B57">
         <v>1.230722723563739E-2</v>
@@ -6434,7 +6442,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B58">
         <v>4.2251689256791622E-5</v>
@@ -6457,7 +6465,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B59">
         <v>1.3029957343566219E-5</v>
@@ -6480,7 +6488,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B60">
         <v>5.2774376028294717E-5</v>
@@ -6503,7 +6511,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B61">
         <v>5.011764983376113E-5</v>
@@ -6526,7 +6534,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B62">
         <v>5.9043779138198504E-6</v>
@@ -6544,12 +6552,12 @@
         <v>0.84947482367531413</v>
       </c>
       <c r="G62" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B63">
         <v>8.592056113009297E-5</v>
@@ -6572,7 +6580,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B64">
         <v>3.7572173041441477E-8</v>
@@ -6595,7 +6603,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B65">
         <v>6.8034144844075351E-6</v>
@@ -6618,7 +6626,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B66">
         <v>1.113171071141018E-3</v>
@@ -6641,7 +6649,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B67">
         <v>1.78815631449722E-5</v>
@@ -6664,7 +6672,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B68">
         <v>9.6814259156636684E-6</v>
@@ -6687,7 +6695,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B69">
         <v>3.5574682366291809E-5</v>
@@ -6710,7 +6718,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B70">
         <v>5.7619848465685636E-6</v>
@@ -6733,7 +6741,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B71">
         <v>1.3869558589106521E-3</v>
@@ -6756,7 +6764,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B72">
         <v>1.8905974775307399E-3</v>
@@ -6779,7 +6787,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B73">
         <v>4.9412976351856527E-4</v>
@@ -6802,7 +6810,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B74">
         <v>1.065613885711434E-4</v>
@@ -6825,7 +6833,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B75">
         <v>1.9823126789829361E-5</v>
@@ -6848,7 +6856,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B76">
         <v>1.434716585258683E-5</v>
@@ -6871,7 +6879,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B77">
         <v>1.116842175079253E-4</v>
@@ -6894,7 +6902,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B78">
         <v>5.0078818689795973E-5</v>
@@ -6917,7 +6925,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B79">
         <v>1.4886600107945131E-5</v>
@@ -6940,7 +6948,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B80">
         <v>1.9294035608863509E-5</v>
@@ -6963,7 +6971,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B81">
         <v>1.542999271279102E-3</v>
@@ -6986,7 +6994,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B82">
         <v>3.0010157277649271E-2</v>
@@ -7009,7 +7017,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B83">
         <v>1.340606984734938E-3</v>
@@ -7032,7 +7040,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B84">
         <v>1.557206232715474E-2</v>
@@ -7055,7 +7063,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B85">
         <v>9.595043469758567E-4</v>
@@ -7078,7 +7086,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B86">
         <v>1.370983254236556E-2</v>
@@ -7101,7 +7109,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B87">
         <v>5.8484580990826682E-3</v>
@@ -7124,7 +7132,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B88">
         <v>1.028034104689917E-2</v>
@@ -7147,7 +7155,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B89">
         <v>2.1978972523621378E-2</v>
@@ -7170,7 +7178,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B90">
         <v>1.8411854405731471E-2</v>
@@ -7193,7 +7201,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B91">
         <v>1.798426263808414E-3</v>
@@ -7216,7 +7224,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B92">
         <v>2.2166312496238939E-2</v>
@@ -7239,7 +7247,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B93">
         <v>1.540402936613095E-3</v>
@@ -7262,7 +7270,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B94">
         <v>1.199910089137783E-2</v>
@@ -7285,7 +7293,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B95">
         <v>7.6786638967034663E-4</v>
@@ -7308,7 +7316,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B96">
         <v>9.0594755710386038E-4</v>
@@ -7331,7 +7339,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B97">
         <v>4.4461097998069344E-3</v>
@@ -7354,7 +7362,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B98">
         <v>1.0113611825147769E-2</v>
@@ -7377,7 +7385,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B99">
         <v>1.4288759910751859E-3</v>
@@ -7400,7 +7408,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B100">
         <v>2.3117558020304589E-3</v>
@@ -7423,7 +7431,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B101">
         <v>1.384401068790081E-3</v>
@@ -7446,7 +7454,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B102">
         <v>7.3748216917957594E-5</v>
@@ -7469,7 +7477,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B103">
         <v>5.0798889096822118E-3</v>
@@ -7492,7 +7500,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B104">
         <v>1.372405662150422E-2</v>
@@ -7515,7 +7523,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B105">
         <v>3.1073598641974658E-3</v>
@@ -7538,7 +7546,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B106">
         <v>1.5420660129647599E-6</v>
@@ -7561,7 +7569,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B107">
         <v>6.8573656039490958E-6</v>
@@ -7584,7 +7592,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B108">
         <v>1.296806983579933E-3</v>
@@ -7607,7 +7615,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B109">
         <v>4.6929966029597273E-2</v>
@@ -7630,7 +7638,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B110">
         <v>1.212819254016584E-2</v>
@@ -7653,7 +7661,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B111">
         <v>1.085440812914437E-2</v>
@@ -7676,7 +7684,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B112">
         <v>4.6792115964878521E-3</v>
@@ -7699,7 +7707,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B113">
         <v>6.2343936748503859E-2</v>
@@ -7722,7 +7730,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B114">
         <v>2.0930340515008909E-3</v>
@@ -7745,7 +7753,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B115">
         <v>3.699390939782124E-3</v>
@@ -7768,7 +7776,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B116">
         <v>5.0303934332098427E-2</v>
@@ -7791,7 +7799,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B117">
         <v>4.1090420793767892E-3</v>
@@ -7814,7 +7822,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B118">
         <v>8.7593528563103002E-3</v>
@@ -7837,7 +7845,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B119">
         <v>3.6906340860216498E-2</v>
@@ -7860,7 +7868,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B120">
         <v>4.9549202704657503E-3</v>
@@ -7883,7 +7891,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B121">
         <v>1.676786978857021E-2</v>
@@ -7906,7 +7914,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B122">
         <v>5.8955672027937792E-2</v>
@@ -7929,7 +7937,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B123">
         <v>1.735488355768335E-3</v>
@@ -7952,7 +7960,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B124">
         <v>3.7021211646296882E-2</v>
@@ -7975,7 +7983,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B125">
         <v>3.1336249716238343E-2</v>
@@ -7998,7 +8006,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B126">
         <v>4.3669216560664553E-2</v>
@@ -8021,7 +8029,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B127">
         <v>9.1834707793349724E-3</v>
@@ -8044,7 +8052,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B128">
         <v>2.22488891946081E-3</v>
@@ -8067,7 +8075,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B129">
         <v>4.4951562817113072E-3</v>
@@ -8090,7 +8098,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B130">
         <v>1.416891124363652E-2</v>
@@ -8113,7 +8121,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B131">
         <v>2.3895470611432022E-3</v>
@@ -8136,7 +8144,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B132">
         <v>2.4205441629367888E-3</v>
@@ -8159,7 +8167,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B133">
         <v>1.068990792715346E-2</v>
@@ -8182,7 +8190,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B134">
         <v>9.1095950103148044E-4</v>
@@ -8205,7 +8213,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B135">
         <v>1.4985299201021221E-3</v>
@@ -8228,7 +8236,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B136">
         <v>3.496956408284075E-2</v>
@@ -8251,7 +8259,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B137">
         <v>9.3595324699985265E-3</v>
@@ -8274,7 +8282,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B138">
         <v>4.4720364343086086E-3</v>
@@ -8297,7 +8305,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B139">
         <v>1.3356513659469721E-2</v>
@@ -8320,7 +8328,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B140">
         <v>8.3795898109576342E-3</v>
@@ -8343,7 +8351,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B141">
         <v>0.17436607394015979</v>
@@ -8366,7 +8374,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B142">
         <v>1.112181583879744E-2</v>
@@ -8389,7 +8397,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B143">
         <v>4.0203305873809977E-2</v>
@@ -8412,7 +8420,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B144">
         <v>1.271325553018433E-2</v>
@@ -8435,7 +8443,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B145">
         <v>1.5655251060142171E-3</v>
@@ -8458,7 +8466,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B146">
         <v>0.14112652818146509</v>
@@ -8481,7 +8489,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B147">
         <v>1.8194771675408481E-3</v>
@@ -8504,7 +8512,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B148">
         <v>1.235504797675635E-2</v>
@@ -8527,7 +8535,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B149">
         <v>7.3295063132390193E-3</v>
@@ -8550,7 +8558,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B150">
         <v>4.5869633895675643E-3</v>
@@ -8573,7 +8581,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B151">
         <v>0.27352505872780047</v>
@@ -8596,7 +8604,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B152">
         <v>4.731468575605061E-3</v>
@@ -8627,7 +8635,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8646,10 +8654,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -8657,7 +8665,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2">
         <v>0.1880610671233359</v>
@@ -8680,7 +8688,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3">
         <v>6.5393816209146485E-2</v>
@@ -8703,7 +8711,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4">
         <v>7.7886408185312353E-2</v>
@@ -8726,7 +8734,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5">
         <v>2.8520191966942802E-4</v>
@@ -8749,7 +8757,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6">
         <v>0.36780298246320031</v>
@@ -8772,7 +8780,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B7">
         <v>0.1429703113171002</v>
@@ -8790,12 +8798,12 @@
         <v>0.73326283734261521</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8">
         <v>7.1008592556035838E-2</v>
@@ -8813,12 +8821,12 @@
         <v>0.79391380653335342</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9">
         <v>2.1794062310609911E-3</v>
@@ -8841,7 +8849,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10">
         <v>5.2482345358774211E-2</v>
@@ -8859,12 +8867,12 @@
         <v>0.65066025658277737</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B11">
         <v>8.7964036418094554E-2</v>
@@ -8882,12 +8890,12 @@
         <v>0.88008592546277098</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B12">
         <v>3.56547636546731E-8</v>
@@ -8910,7 +8918,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B13">
         <v>3.2715522845018517E-2</v>
@@ -8928,12 +8936,12 @@
         <v>0.48641782146358631</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B14">
         <v>2.3507852631899539E-6</v>
@@ -8951,12 +8959,12 @@
         <v>0.9973995482941026</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B15">
         <v>3.6254322180651763E-2</v>
@@ -8974,12 +8982,12 @@
         <v>0.87175359189802792</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B16">
         <v>6.9149960699724866E-3</v>
@@ -8997,12 +9005,12 @@
         <v>0.4546257925259089</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B17">
         <v>2.9182739644116312E-2</v>
@@ -9020,12 +9028,12 @@
         <v>0.91174048830010235</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B18">
         <v>3.9278352050456982E-5</v>
@@ -9043,12 +9051,12 @@
         <v>0.56509502486345242</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B19">
         <v>9.7292105831713293E-6</v>
@@ -9066,12 +9074,12 @@
         <v>0.96265886458324945</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B20">
         <v>3.032299792002589E-2</v>
@@ -9089,12 +9097,12 @@
         <v>0.92957566906264655</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B21">
         <v>8.3416399096413116E-2</v>
@@ -9117,7 +9125,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B22">
         <v>7.8271885919843314E-5</v>
@@ -9140,7 +9148,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B23">
         <v>1.765568937733416E-4</v>
@@ -9158,12 +9166,12 @@
         <v>0.50607691647961262</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B24">
         <v>2.2944818889574468E-2</v>
@@ -9181,12 +9189,12 @@
         <v>0.63512565387915776</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B25">
         <v>5.8400525065221268E-2</v>
@@ -9209,7 +9217,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B26">
         <v>9.985297955555359E-4</v>
@@ -9227,12 +9235,12 @@
         <v>0.67090406299005312</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B27">
         <v>3.640791470427486E-2</v>
@@ -9255,7 +9263,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B28">
         <v>1.6829862171217728E-2</v>
@@ -9273,7 +9281,7 @@
         <v>0.98316860234060033</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
